--- a/expimp/estimate_work.xlsx
+++ b/expimp/estimate_work.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,6 +448,330 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>9dba22aa-1984-4811-aacc-f18314637b3f</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>85990564-8987-4c7d-b8d7-f432f40a6f2e</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2000.0</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>800.0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>b00cdb09-6f9e-4203-ae0c-140159ab9f21</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>9dba22aa-1984-4811-aacc-f18314637b3f</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>8d758522-a4b7-4154-bc0f-1d9fbafccb2a</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>33600.0</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>24000.0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>3e28e2fa-4c19-445b-b5ea-201c76e450be</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>9dba22aa-1984-4811-aacc-f18314637b3f</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>6fe0efb4-126e-49fb-8025-479f08b9e809</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>20000.0</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6000.0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>c79c78fd-ee8f-4b39-9976-dd236aceb2f5</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>9dba22aa-1984-4811-aacc-f18314637b3f</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1df16de3-2c32-4faa-bd31-1f50e295e2d0</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>5000.0</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1000.0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>21faf20f-864b-43c0-a505-6da20cc6547e</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>9dba22aa-1984-4811-aacc-f18314637b3f</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>dc407156-fc91-4d55-9d8e-df5d16fe3b09</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>32000.0</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4000.0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>b3cf49f9-fc94-43e0-98bc-6e4e2b093c01</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>9dba22aa-1984-4811-aacc-f18314637b3f</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>116dc867-95a6-40f9-b29c-618ac6ab8667</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>3600.0</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1200.0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>6b6c4e2b-ec43-4732-bd71-e40fe1fdbb4a</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>325c16c8-7841-4183-9d89-fe07130c5545</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>dc407156-fc91-4d55-9d8e-df5d16fe3b09</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>32000.0</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4000.0</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93494870-5fa1-4851-86a2-e40b74d43103</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>325c16c8-7841-4183-9d89-fe07130c5545</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>116dc867-95a6-40f9-b29c-618ac6ab8667</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>3600.0</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1200.0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>c66803d5-e720-4d2a-b5eb-195f52d0d5e9</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>325c16c8-7841-4183-9d89-fe07130c5545</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1df16de3-2c32-4faa-bd31-1f50e295e2d0</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>5000.0</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1000.0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>ac09aa13-5641-4f61-ac99-9e3682a8a5e4</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>325c16c8-7841-4183-9d89-fe07130c5545</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>6fe0efb4-126e-49fb-8025-479f08b9e809</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>20000.0</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6000.0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>4668f4a7-e2b9-4917-a693-ed08d2be4abc</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>325c16c8-7841-4183-9d89-fe07130c5545</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>85990564-8987-4c7d-b8d7-f432f40a6f2e</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2000.0</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>800.0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>430dcc5b-5aa4-44c5-9cd7-0d0c79f3d0a6</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>325c16c8-7841-4183-9d89-fe07130c5545</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>8d758522-a4b7-4154-bc0f-1d9fbafccb2a</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>33600.0</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>24000.0</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>d1de07e9-bc60-497f-b50f-3e8c07dcd97b</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
